--- a/public/cohort/fileExcel/xlsxUIT/NLT PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/NLT PTA en onderwijsprogramma.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -260,31 +260,16 @@
     <t>De reis van de Beagle</t>
   </si>
   <si>
-    <t>B1, B2, E2, A</t>
-  </si>
-  <si>
     <t>Bewust overwogen biertje</t>
   </si>
   <si>
-    <t>B1, B2, D, E2, A</t>
-  </si>
-  <si>
     <t>Aerosolen en vuile lucht</t>
-  </si>
-  <si>
-    <t>B1, B2, C, D, A</t>
   </si>
   <si>
     <t>De BINAS HAVO/VWO is bij alle schriftelijke toetsen een toegestaan hulpmiddel, tenzij anders vermeld bij de toets</t>
   </si>
   <si>
     <t>Ruimte voor de rivier</t>
-  </si>
-  <si>
-    <t>A, B1, B2, C</t>
-  </si>
-  <si>
-    <t>A, B1, B2, D, E2</t>
   </si>
   <si>
     <t>De BINAS HAVO/VWO is bij alle schriftelijke toetsen een toegestaan hulpmiddel, tenzij anders vermeld bij de toets.</t>
@@ -294,9 +279,6 @@
   </si>
   <si>
     <t>Theoretische toets Forensisch Onderzoek</t>
-  </si>
-  <si>
-    <t>A, B1, B2, E2, F2</t>
   </si>
   <si>
     <t>Dossier Forensisch Onderzoek</t>
@@ -314,37 +296,22 @@
     <t>Portfolio Hart en vaten</t>
   </si>
   <si>
-    <t>A, B1, D1</t>
-  </si>
-  <si>
     <t>Hart en vaten</t>
   </si>
   <si>
     <t xml:space="preserve">Ruimte voor de rivier </t>
   </si>
   <si>
-    <t>A, B1, B2, C1, C2</t>
-  </si>
-  <si>
     <t>Rijden onder invloed</t>
   </si>
   <si>
-    <t>A, B1, B2, D2, F2</t>
-  </si>
-  <si>
     <t>Dossier De bewegende aarde</t>
-  </si>
-  <si>
-    <t>A, B1, B2, C1, F2</t>
   </si>
   <si>
     <t>Theoretische toets De bewegende aarde</t>
   </si>
   <si>
     <t>Theoretische toets Food or fuel</t>
-  </si>
-  <si>
-    <t>A, B1, C2, E2</t>
   </si>
   <si>
     <t>Portfolio Food or Fuel</t>
@@ -1364,7 +1331,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1372,7 +1339,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I6" s="27">
         <v>5</v>
@@ -1393,9 +1360,7 @@
       <c r="O6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="32" t="s">
-        <v>89</v>
-      </c>
+      <c r="P6" s="32"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
@@ -1410,7 +1375,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="I7" s="27">
         <v>5</v>
@@ -1429,9 +1394,7 @@
       <c r="O7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="32" t="s">
-        <v>89</v>
-      </c>
+      <c r="P7" s="32"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
@@ -1446,7 +1409,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I8" s="27">
         <v>10</v>
@@ -1463,9 +1426,7 @@
       <c r="O8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="32">
-        <v>0</v>
-      </c>
+      <c r="P8" s="32"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
@@ -1481,7 +1442,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I9" s="27">
         <v>2</v>
@@ -1500,9 +1461,7 @@
       <c r="O9" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P9" s="32">
-        <v>0</v>
-      </c>
+      <c r="P9" s="32"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
@@ -1510,7 +1469,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633368056</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1518,7 +1477,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="I10" s="27">
         <v>8</v>
@@ -1535,9 +1494,7 @@
       <c r="O10" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P10" s="32">
-        <v>0</v>
-      </c>
+      <c r="P10" s="32"/>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
@@ -1609,7 +1566,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
@@ -2268,7 +2225,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2382,7 +2339,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633368056</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2537,7 +2494,7 @@
         <v>2</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="I18" s="27">
         <v>2</v>
@@ -2556,9 +2513,7 @@
       <c r="O18" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P18" s="32" t="s">
-        <v>95</v>
-      </c>
+      <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
       <c r="D19" s="2"/>
@@ -2567,7 +2522,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="I19" s="27">
         <v>1</v>
@@ -2588,9 +2543,7 @@
       <c r="O19" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P19" s="32" t="s">
-        <v>95</v>
-      </c>
+      <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
       <c r="D20" s="2"/>
@@ -2599,7 +2552,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="I20" s="27">
         <v>3</v>
@@ -2618,9 +2571,7 @@
       <c r="O20" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P20" s="32" t="s">
-        <v>98</v>
-      </c>
+      <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
       <c r="D21" s="2"/>
@@ -2629,7 +2580,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="I21" s="27">
         <v>3</v>
@@ -2648,9 +2599,7 @@
       <c r="O21" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P21" s="32" t="s">
-        <v>100</v>
-      </c>
+      <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
       <c r="D22" s="2"/>
@@ -2714,7 +2663,7 @@
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
       <c r="G26" s="34" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
@@ -3168,7 +3117,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3282,7 +3231,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633368056</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3642,7 +3591,7 @@
         <v>2</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="I30" s="27"/>
       <c r="J30" s="29" t="s">
@@ -3659,9 +3608,7 @@
       <c r="O30" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P30" s="32" t="s">
-        <v>102</v>
-      </c>
+      <c r="P30" s="32"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
       <c r="D31" s="2"/>
@@ -3670,7 +3617,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="I31" s="27"/>
       <c r="J31" s="29" t="s">
@@ -3689,9 +3636,7 @@
       <c r="O31" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P31" s="32" t="s">
-        <v>102</v>
-      </c>
+      <c r="P31" s="32"/>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
       <c r="D32" s="2"/>
@@ -3700,7 +3645,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="I32" s="27"/>
       <c r="J32" s="29" t="s">
@@ -3719,9 +3664,7 @@
       <c r="O32" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P32" s="32" t="s">
-        <v>105</v>
-      </c>
+      <c r="P32" s="32"/>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="72">
       <c r="D33" s="2"/>
@@ -3730,7 +3673,7 @@
         <v>3</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="I33" s="27"/>
       <c r="J33" s="29" t="s">
@@ -3747,9 +3690,7 @@
       <c r="O33" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P33" s="32" t="s">
-        <v>105</v>
-      </c>
+      <c r="P33" s="32"/>
     </row>
     <row r="34" spans="1:17" customHeight="1" ht="72">
       <c r="D34" s="2"/>
@@ -3813,7 +3754,7 @@
     </row>
     <row r="38" spans="1:17" customHeight="1" ht="72">
       <c r="G38" s="34" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H38" s="34"/>
       <c r="I38" s="34"/>
@@ -4166,7 +4107,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633368056</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5121,7 +5062,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633368056</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5937,7 +5878,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633368056</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6753,7 +6694,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633368056</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7492,9 +7433,7 @@
       <c r="O6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="32">
-        <v>0</v>
-      </c>
+      <c r="P6" s="32"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
@@ -7530,9 +7469,7 @@
       <c r="O7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="32" t="s">
-        <v>77</v>
-      </c>
+      <c r="P7" s="32"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
@@ -7566,9 +7503,7 @@
       <c r="O8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="32" t="s">
-        <v>77</v>
-      </c>
+      <c r="P8" s="32"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
@@ -7584,7 +7519,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I9" s="27">
         <v>2</v>
@@ -7603,9 +7538,7 @@
       <c r="O9" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P9" s="32" t="s">
-        <v>79</v>
-      </c>
+      <c r="P9" s="32"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
@@ -7613,7 +7546,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633368056</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7621,7 +7554,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I10" s="27">
         <v>1</v>
@@ -7640,9 +7573,7 @@
       <c r="O10" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P10" s="32">
-        <v>0</v>
-      </c>
+      <c r="P10" s="32"/>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
@@ -7658,7 +7589,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I11" s="27">
         <v>1</v>
@@ -7679,9 +7610,7 @@
       <c r="O11" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P11" s="32" t="s">
-        <v>81</v>
-      </c>
+      <c r="P11" s="32"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
@@ -7724,7 +7653,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
@@ -8497,7 +8426,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633368056</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8652,7 +8581,7 @@
         <v>2</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
@@ -8669,9 +8598,7 @@
       <c r="O18" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P18" s="32" t="s">
-        <v>84</v>
-      </c>
+      <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
       <c r="D19" s="2"/>
@@ -8680,7 +8607,7 @@
         <v>3</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
@@ -8697,9 +8624,7 @@
       <c r="O19" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P19" s="32" t="s">
-        <v>85</v>
-      </c>
+      <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
       <c r="D20" s="2"/>
@@ -8807,7 +8732,7 @@
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
       <c r="G26" s="34" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
@@ -9365,7 +9290,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633368056</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>

--- a/public/cohort/fileExcel/xlsxUIT/NLT PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/NLT PTA en onderwijsprogramma.xlsx
@@ -1333,7 +1333,9 @@
       <c r="B6" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>435</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="G6" s="27">
         <v>1</v>
@@ -1369,7 +1371,9 @@
       <c r="B7" s="2">
         <v>2020</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>436</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="G7" s="27">
         <v>2</v>
@@ -1403,7 +1407,9 @@
       <c r="B8" s="2">
         <v>130</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>437</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="G8" s="27">
         <v>3</v>
@@ -1436,7 +1442,9 @@
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2023</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>438</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="G9" s="27">
         <v>4</v>
@@ -1469,9 +1477,11 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44336.445729167</v>
+      </c>
+      <c r="D10" s="2">
+        <v>439</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="G10" s="27">
         <v>4</v>
@@ -1545,7 +1555,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>322</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  NLT leerlaag A4 (schooljaar 2020 - 2021)</v>
@@ -1759,7 +1771,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>323</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  NLT leerlaag A5 (schooljaar 2021 - 2022)</v>
@@ -1964,7 +1978,9 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>324</v>
+      </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  NLT leerlaag A6 (schooljaar 2022 - 2023)</v>
@@ -2339,7 +2355,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
+        <v>44336.445729167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2411,7 +2427,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>325</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  NLT leerlaag A4 (schooljaar 2019 - 2020)</v>
@@ -2488,7 +2506,9 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>440</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="G18" s="27">
         <v>2</v>
@@ -2516,7 +2536,9 @@
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>441</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="G19" s="27">
         <v>2</v>
@@ -2546,7 +2568,9 @@
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>442</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="G20" s="27">
         <v>3</v>
@@ -2574,7 +2598,9 @@
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>443</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="G21" s="27">
         <v>4</v>
@@ -2649,7 +2675,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>326</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  NLT leerlaag A5 (schooljaar 2020 - 2021)</v>
@@ -2856,7 +2884,9 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>327</v>
+      </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  NLT leerlaag A6 (schooljaar 2021 - 2022)</v>
@@ -3231,7 +3261,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
+        <v>44336.445729167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3303,7 +3333,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>328</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  NLT leerlaag A4 (schooljaar 2018 - 2019)</v>
@@ -3515,7 +3547,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>329</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  NLT leerlaag A5 (schooljaar 2019 - 2020)</v>
@@ -3585,7 +3619,9 @@
       </c>
     </row>
     <row r="30" spans="1:17" customHeight="1" ht="72">
-      <c r="D30" s="2"/>
+      <c r="D30" s="2">
+        <v>444</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="G30" s="27">
         <v>2</v>
@@ -3611,7 +3647,9 @@
       <c r="P30" s="32"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
-      <c r="D31" s="2"/>
+      <c r="D31" s="2">
+        <v>445</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="G31" s="27">
         <v>2</v>
@@ -3639,7 +3677,9 @@
       <c r="P31" s="32"/>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
-      <c r="D32" s="2"/>
+      <c r="D32" s="2">
+        <v>446</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="G32" s="27">
         <v>3</v>
@@ -3667,7 +3707,9 @@
       <c r="P32" s="32"/>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="72">
-      <c r="D33" s="2"/>
+      <c r="D33" s="2">
+        <v>447</v>
+      </c>
       <c r="E33" s="2"/>
       <c r="G33" s="27">
         <v>3</v>
@@ -3740,7 +3782,9 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>330</v>
+      </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  NLT leerlaag A6 (schooljaar 2020 - 2021)</v>
@@ -4107,7 +4151,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
+        <v>44336.445729167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5062,7 +5106,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
+        <v>44336.445729167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5878,7 +5922,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
+        <v>44336.445729167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6694,7 +6738,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
+        <v>44336.445729167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7408,7 +7452,9 @@
       <c r="B6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>427</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="G6" s="27">
         <v>1</v>
@@ -7442,7 +7488,9 @@
       <c r="B7" s="2">
         <v>2020</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>428</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="G7" s="27">
         <v>2</v>
@@ -7478,7 +7526,9 @@
       <c r="B8" s="2">
         <v>128</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>429</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="G8" s="27">
         <v>2</v>
@@ -7513,7 +7563,9 @@
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2022</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>430</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="G9" s="27">
         <v>3</v>
@@ -7546,9 +7598,11 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44336.445729167</v>
+      </c>
+      <c r="D10" s="2">
+        <v>431</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="G10" s="27">
         <v>4</v>
@@ -7583,7 +7637,9 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>432</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="G11" s="27">
         <v>4</v>
@@ -7632,7 +7688,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>318</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  NLT leerlaag H4 (schooljaar 2020 - 2021)</v>
@@ -7846,7 +7904,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>319</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  NLT leerlaag H5 (schooljaar 2021 - 2022)</v>
@@ -8426,7 +8486,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
+        <v>44336.445729167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8498,7 +8558,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>320</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  NLT leerlaag H4 (schooljaar 2019 - 2020)</v>
@@ -8575,7 +8637,9 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>433</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="G18" s="27">
         <v>2</v>
@@ -8601,7 +8665,9 @@
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>434</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="G19" s="27">
         <v>3</v>
@@ -8718,7 +8784,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>321</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  NLT leerlaag H5 (schooljaar 2020 - 2021)</v>
@@ -9290,7 +9358,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
+        <v>44336.445729167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>

--- a/public/cohort/fileExcel/xlsxUIT/NLT PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/NLT PTA en onderwijsprogramma.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <workbookProtection lockRevision="false" lockStructure="true" lockWindows="false"/>
   <bookViews>
-    <workbookView activeTab="11" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="12" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="instellingen" sheetId="1" r:id="rId4"/>
@@ -13,13 +13,14 @@
     <sheet name="wensen" sheetId="3" r:id="rId6"/>
     <sheet name="M 2021" sheetId="4" r:id="rId7"/>
     <sheet name="M 2020" sheetId="5" r:id="rId8"/>
-    <sheet name="H 2021" sheetId="6" r:id="rId9"/>
-    <sheet name="H 2020" sheetId="7" r:id="rId10"/>
-    <sheet name="H 2019" sheetId="8" r:id="rId11"/>
-    <sheet name="A 2021" sheetId="9" r:id="rId12"/>
-    <sheet name="A 2020" sheetId="10" r:id="rId13"/>
-    <sheet name="A 2019" sheetId="11" r:id="rId14"/>
-    <sheet name="A 2018" sheetId="12" r:id="rId15"/>
+    <sheet name="M 2019" sheetId="6" r:id="rId9"/>
+    <sheet name="H 2021" sheetId="7" r:id="rId10"/>
+    <sheet name="H 2020" sheetId="8" r:id="rId11"/>
+    <sheet name="H 2019" sheetId="9" r:id="rId12"/>
+    <sheet name="A 2021" sheetId="10" r:id="rId13"/>
+    <sheet name="A 2020" sheetId="11" r:id="rId14"/>
+    <sheet name="A 2019" sheetId="12" r:id="rId15"/>
+    <sheet name="A 2018" sheetId="13" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -251,6 +252,9 @@
     <t>NLT</t>
   </si>
   <si>
+    <t>M</t>
+  </si>
+  <si>
     <t>H</t>
   </si>
   <si>
@@ -260,16 +264,31 @@
     <t>De reis van de Beagle</t>
   </si>
   <si>
+    <t>B1, B2, E2, A</t>
+  </si>
+  <si>
     <t>Bewust overwogen biertje</t>
   </si>
   <si>
+    <t>B1, B2, D, E2, A</t>
+  </si>
+  <si>
     <t>Aerosolen en vuile lucht</t>
+  </si>
+  <si>
+    <t>B1, B2, C, D, A</t>
   </si>
   <si>
     <t>De BINAS HAVO/VWO is bij alle schriftelijke toetsen een toegestaan hulpmiddel, tenzij anders vermeld bij de toets</t>
   </si>
   <si>
     <t>Ruimte voor de rivier</t>
+  </si>
+  <si>
+    <t>A, B1, B2, C</t>
+  </si>
+  <si>
+    <t>A, B1, B2, D, E2</t>
   </si>
   <si>
     <t>De BINAS HAVO/VWO is bij alle schriftelijke toetsen een toegestaan hulpmiddel, tenzij anders vermeld bij de toets.</t>
@@ -279,6 +298,9 @@
   </si>
   <si>
     <t>Theoretische toets Forensisch Onderzoek</t>
+  </si>
+  <si>
+    <t>A, B1, B2, E2, F2</t>
   </si>
   <si>
     <t>Dossier Forensisch Onderzoek</t>
@@ -296,22 +318,37 @@
     <t>Portfolio Hart en vaten</t>
   </si>
   <si>
+    <t>A, B1, D1</t>
+  </si>
+  <si>
     <t>Hart en vaten</t>
   </si>
   <si>
     <t xml:space="preserve">Ruimte voor de rivier </t>
   </si>
   <si>
+    <t>A, B1, B2, C1, C2</t>
+  </si>
+  <si>
     <t>Rijden onder invloed</t>
   </si>
   <si>
+    <t>A, B1, B2, D2, F2</t>
+  </si>
+  <si>
     <t>Dossier De bewegende aarde</t>
+  </si>
+  <si>
+    <t>A, B1, B2, C1, F2</t>
   </si>
   <si>
     <t>Theoretische toets De bewegende aarde</t>
   </si>
   <si>
     <t>Theoretische toets Food or fuel</t>
+  </si>
+  <si>
+    <t>A, B1, C2, E2</t>
   </si>
   <si>
     <t>Portfolio Food or Fuel</t>
@@ -1243,12 +1280,12 @@
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>72</v>
+      <c r="B2" s="2">
+        <v>0</v>
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige A4 (cohort 2020 - 2023)</v>
+        <v>verouderd PTA</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -1270,25 +1307,21 @@
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>NLT leerlaag A4 (schooljaar 2020 - 2021)</v>
+        <v> leerlaag 4 (schooljaar  - 1)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="2">
-        <v>20</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="D5" s="7" t="s">
         <v>30</v>
       </c>
@@ -1330,37 +1363,25 @@
       <c r="A6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="2">
-        <v>435</v>
-      </c>
+      <c r="B6" s="2"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="G6" s="27">
-        <v>1</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="I6" s="27">
-        <v>5</v>
-      </c>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
       <c r="J6" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K6" s="30"/>
-      <c r="L6" s="27">
-        <v>100</v>
-      </c>
+      <c r="L6" s="27"/>
       <c r="M6" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" s="31">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N6" s="31"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P6" s="32"/>
     </row>
@@ -1368,35 +1389,25 @@
       <c r="A7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="2">
-        <v>2020</v>
-      </c>
-      <c r="D7" s="2">
-        <v>436</v>
-      </c>
+      <c r="B7" s="2"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="G7" s="27">
-        <v>2</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I7" s="27">
-        <v>5</v>
-      </c>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
       <c r="J7" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K7" s="30"/>
       <c r="L7" s="27"/>
       <c r="M7" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N7" s="31">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N7" s="31"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P7" s="32"/>
     </row>
@@ -1404,33 +1415,25 @@
       <c r="A8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="2">
-        <v>130</v>
-      </c>
-      <c r="D8" s="2">
-        <v>437</v>
-      </c>
+      <c r="B8" s="2"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="G8" s="27">
-        <v>3</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I8" s="27">
-        <v>10</v>
-      </c>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
       <c r="J8" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K8" s="30"/>
       <c r="L8" s="27"/>
       <c r="M8" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N8" s="31"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P8" s="32"/>
     </row>
@@ -1440,34 +1443,26 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2023</v>
-      </c>
-      <c r="D9" s="2">
-        <v>438</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="G9" s="27">
-        <v>4</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="I9" s="27">
-        <v>2</v>
-      </c>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
       <c r="J9" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K9" s="30"/>
-      <c r="L9" s="27">
-        <v>50</v>
-      </c>
+      <c r="L9" s="27"/>
       <c r="M9" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N9" s="31"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P9" s="32"/>
     </row>
@@ -1477,32 +1472,26 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445729167</v>
-      </c>
-      <c r="D10" s="2">
-        <v>439</v>
-      </c>
+        <v>44340.444085648</v>
+      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="G10" s="27">
-        <v>4</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="I10" s="27">
-        <v>8</v>
-      </c>
+      <c r="G10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
       <c r="J10" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K10" s="30"/>
       <c r="L10" s="27"/>
       <c r="M10" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N10" s="31"/>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P10" s="32"/>
     </row>
@@ -1550,17 +1539,15 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>0</v>
+        <v>-2020</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2">
-        <v>322</v>
-      </c>
+      <c r="D13" s="2"/>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  NLT leerlaag A4 (schooljaar 2020 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 4 (schooljaar  - 1)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -1575,11 +1562,9 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>4</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>81</v>
-      </c>
+        <v>2024</v>
+      </c>
+      <c r="G14" s="34"/>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
@@ -1594,7 +1579,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>NLT leerlaag A5 (schooljaar 2021 - 2022)</v>
+        <v> leerlaag 5 (schooljaar 1 - 2)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -1771,12 +1756,10 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2">
-        <v>323</v>
-      </c>
+      <c r="D25" s="2"/>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  NLT leerlaag A5 (schooljaar 2021 - 2022)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 5 (schooljaar 1 - 2)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -1801,7 +1784,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>NLT leerlaag A6 (schooljaar 2022 - 2023)</v>
+        <v> leerlaag 6 (schooljaar 2 - 1)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -1978,12 +1961,10 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2">
-        <v>324</v>
-      </c>
+      <c r="D37" s="2"/>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  NLT leerlaag A6 (schooljaar 2022 - 2023)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 6 (schooljaar 2 - 1)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -2057,44 +2038,6 @@
       <formula>ISBLANK($O30)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="12">
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-  </dataValidations>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
@@ -2158,7 +2101,7 @@
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige A5 (cohort 2019 - 2022)</v>
+        <v>Dit is het programma van de huidige A4 (cohort 2020 - 2023)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -2189,7 +2132,7 @@
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>NLT leerlaag A4 (schooljaar 2019 - 2020)</v>
+        <v>NLT leerlaag A4 (schooljaar 2020 - 2021)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
@@ -2241,78 +2184,106 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="D6" s="2">
+        <v>435</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="G6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="27"/>
+      <c r="G6" s="27">
+        <v>1</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="I6" s="27">
+        <v>5</v>
+      </c>
       <c r="J6" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K6" s="30"/>
-      <c r="L6" s="27"/>
+      <c r="L6" s="27">
+        <v>100</v>
+      </c>
       <c r="M6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N6" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N6" s="31">
+        <v>1</v>
+      </c>
       <c r="O6" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P6" s="32" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="2">
-        <v>2019</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>2020</v>
+      </c>
+      <c r="D7" s="2">
+        <v>436</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="G7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="27"/>
+      <c r="G7" s="27">
+        <v>2</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" s="27">
+        <v>5</v>
+      </c>
       <c r="J7" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K7" s="30"/>
       <c r="L7" s="27"/>
       <c r="M7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="N7" s="31">
+        <v>1</v>
+      </c>
+      <c r="O7" s="31">
+        <v>0</v>
+      </c>
+      <c r="P7" s="32" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="2">
-        <v>131</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="D8" s="2">
+        <v>437</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="G8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="27"/>
+      <c r="G8" s="27">
+        <v>3</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" s="27">
+        <v>10</v>
+      </c>
       <c r="J8" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K8" s="30"/>
       <c r="L8" s="27"/>
       <c r="M8" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N8" s="31"/>
       <c r="O8" s="31" t="s">
@@ -2326,26 +2297,34 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2022</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>2023</v>
+      </c>
+      <c r="D9" s="2">
+        <v>438</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="G9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="27"/>
+      <c r="G9" s="27">
+        <v>4</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="I9" s="27">
+        <v>2</v>
+      </c>
       <c r="J9" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K9" s="30"/>
-      <c r="L9" s="27"/>
+      <c r="L9" s="27">
+        <v>50</v>
+      </c>
       <c r="M9" s="27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N9" s="31"/>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P9" s="32"/>
     </row>
@@ -2355,22 +2334,28 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445729167</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44340.444085648</v>
+      </c>
+      <c r="D10" s="2">
+        <v>439</v>
+      </c>
       <c r="E10" s="2"/>
-      <c r="G10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="27"/>
+      <c r="G10" s="27">
+        <v>4</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="27">
+        <v>8</v>
+      </c>
       <c r="J10" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K10" s="30"/>
       <c r="L10" s="27"/>
       <c r="M10" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N10" s="31"/>
       <c r="O10" s="31" t="s">
@@ -2422,17 +2407,17 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  NLT leerlaag A4 (schooljaar 2019 - 2020)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  NLT leerlaag A4 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -2447,9 +2432,11 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>5</v>
-      </c>
-      <c r="G14" s="34"/>
+        <v>4</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>87</v>
+      </c>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
@@ -2464,7 +2451,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>NLT leerlaag A5 (schooljaar 2020 - 2021)</v>
+        <v>NLT leerlaag A5 (schooljaar 2021 - 2022)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -2506,124 +2493,90 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2">
-        <v>440</v>
-      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="G18" s="27">
-        <v>2</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="I18" s="27">
-        <v>2</v>
-      </c>
+      <c r="G18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="28"/>
+      <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K18" s="30"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N18" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N18" s="31"/>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2">
-        <v>441</v>
-      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="G19" s="27">
-        <v>2</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="I19" s="27">
-        <v>1</v>
-      </c>
+      <c r="G19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="28"/>
+      <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K19" s="30"/>
-      <c r="L19" s="27">
-        <v>100</v>
-      </c>
+      <c r="L19" s="27"/>
       <c r="M19" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N19" s="31">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N19" s="31"/>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2">
-        <v>442</v>
-      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="G20" s="27">
-        <v>3</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="I20" s="27">
-        <v>3</v>
-      </c>
+      <c r="G20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="28"/>
+      <c r="I20" s="27"/>
       <c r="J20" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K20" s="30"/>
       <c r="L20" s="27"/>
       <c r="M20" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N20" s="31">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N20" s="31"/>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2">
-        <v>443</v>
-      </c>
+      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="G21" s="27">
-        <v>4</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="I21" s="27">
-        <v>3</v>
-      </c>
+      <c r="G21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="28"/>
+      <c r="I21" s="27"/>
       <c r="J21" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K21" s="30"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N21" s="31">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N21" s="31"/>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P21" s="32"/>
     </row>
@@ -2676,11 +2629,11 @@
         <v>28</v>
       </c>
       <c r="D25" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  NLT leerlaag A5 (schooljaar 2020 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  NLT leerlaag A5 (schooljaar 2021 - 2022)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -2690,9 +2643,7 @@
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34" t="s">
-        <v>81</v>
-      </c>
+      <c r="G26" s="34"/>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
@@ -2707,7 +2658,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>NLT leerlaag A6 (schooljaar 2021 - 2022)</v>
+        <v>NLT leerlaag A6 (schooljaar 2022 - 2023)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -2885,11 +2836,11 @@
         <v>28</v>
       </c>
       <c r="D37" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  NLT leerlaag A6 (schooljaar 2021 - 2022)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  NLT leerlaag A6 (schooljaar 2022 - 2023)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -3022,6 +2973,920 @@
   </sheetPr>
   <dimension ref="A1:Q38"/>
   <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
+    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
+    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
+    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
+    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
+    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
+    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
+    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
+    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
+    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
+    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
+    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
+    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
+    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
+    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:17" customHeight="1" ht="48">
+      <c r="A2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="35" t="str">
+        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
+        <v>Dit is het programma van de huidige A5 (cohort 2019 - 2022)</v>
+      </c>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="O2" s="25"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" customHeight="1" ht="30">
+      <c r="A4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="G4" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
+        <v>NLT leerlaag A4 (schooljaar 2019 - 2020)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" customHeight="1" ht="34.5">
+      <c r="A5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2">
+        <v>20</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" customHeight="1" ht="72">
+      <c r="A6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="30"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="32"/>
+    </row>
+    <row r="7" spans="1:17" customHeight="1" ht="72">
+      <c r="A7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="30"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="32"/>
+    </row>
+    <row r="8" spans="1:17" customHeight="1" ht="72">
+      <c r="A8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2">
+        <v>131</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="30"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="32"/>
+    </row>
+    <row r="9" spans="1:17" customHeight="1" ht="72">
+      <c r="A9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="4">
+        <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
+        <v>2022</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="30"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="32"/>
+    </row>
+    <row r="10" spans="1:17" customHeight="1" ht="72">
+      <c r="A10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="6">
+        <f>NOW()</f>
+        <v>44340.444085648</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="30"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="32"/>
+    </row>
+    <row r="11" spans="1:17" customHeight="1" ht="72">
+      <c r="A11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="4">
+        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
+        <v>2020</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="30"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="32"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f>CONCATENATE(B11," - ",B11+1)</f>
+        <v>2020 - 2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="4">
+        <f>B7-B11</f>
+        <v>-1</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2">
+        <v>325</v>
+      </c>
+      <c r="G13" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  NLT leerlaag A4 (schooljaar 2019 - 2020)</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+    </row>
+    <row r="14" spans="1:17" customHeight="1" ht="72">
+      <c r="A14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="7">
+        <f>4+B11-B7</f>
+        <v>5</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+    </row>
+    <row r="16" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="G16" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
+        <v>NLT leerlaag A5 (schooljaar 2020 - 2021)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" customHeight="1" ht="72">
+      <c r="D18" s="2">
+        <v>440</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="G18" s="27">
+        <v>2</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="I18" s="27">
+        <v>2</v>
+      </c>
+      <c r="J18" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="30"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="31">
+        <v>2</v>
+      </c>
+      <c r="O18" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="P18" s="32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" customHeight="1" ht="72">
+      <c r="D19" s="2">
+        <v>441</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="G19" s="27">
+        <v>2</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="I19" s="27">
+        <v>1</v>
+      </c>
+      <c r="J19" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="30"/>
+      <c r="L19" s="27">
+        <v>100</v>
+      </c>
+      <c r="M19" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N19" s="31">
+        <v>1</v>
+      </c>
+      <c r="O19" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P19" s="32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" customHeight="1" ht="72">
+      <c r="D20" s="2">
+        <v>442</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="G20" s="27">
+        <v>3</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="I20" s="27">
+        <v>3</v>
+      </c>
+      <c r="J20" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="30"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="31">
+        <v>3</v>
+      </c>
+      <c r="O20" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" customHeight="1" ht="72">
+      <c r="D21" s="2">
+        <v>443</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="G21" s="27">
+        <v>4</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="I21" s="27">
+        <v>3</v>
+      </c>
+      <c r="J21" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="30"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="31">
+        <v>3</v>
+      </c>
+      <c r="O21" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="P21" s="32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" customHeight="1" ht="72">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="G22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="28"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="30"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="32"/>
+    </row>
+    <row r="23" spans="1:17" customHeight="1" ht="72">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="28"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="30"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="32"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="C25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="2">
+        <v>326</v>
+      </c>
+      <c r="G25" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  NLT leerlaag A5 (schooljaar 2020 - 2021)</v>
+      </c>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+    </row>
+    <row r="26" spans="1:17" customHeight="1" ht="72">
+      <c r="G26" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+    </row>
+    <row r="28" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="G28" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
+        <v>NLT leerlaag A6 (schooljaar 2021 - 2022)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N29" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O29" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P29" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" customHeight="1" ht="72">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="G30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="28"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="30"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="32"/>
+    </row>
+    <row r="31" spans="1:17" customHeight="1" ht="72">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="G31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="28"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="30"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="32"/>
+    </row>
+    <row r="32" spans="1:17" customHeight="1" ht="72">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="G32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="30"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="32"/>
+    </row>
+    <row r="33" spans="1:17" customHeight="1" ht="72">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="G33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="28"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="30"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="32"/>
+    </row>
+    <row r="34" spans="1:17" customHeight="1" ht="72">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="G34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="28"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="30"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="32"/>
+    </row>
+    <row r="35" spans="1:17" customHeight="1" ht="72">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="G35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="28"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="30"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="32"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="C37" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="2">
+        <v>327</v>
+      </c>
+      <c r="G37" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  NLT leerlaag A6 (schooljaar 2021 - 2022)</v>
+      </c>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+    </row>
+    <row r="38" spans="1:17" customHeight="1" ht="72">
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="G37:M37"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="G26:M26"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J6:J11">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>ISBLANK($J6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:J23">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>ISBLANK($J18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30:J35">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>ISBLANK($J30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:M11">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>ISBLANK($M6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18:M23">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>ISBLANK($M18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M30:M35">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>ISBLANK($M30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:O11">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>ISBLANK($O6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18:O23">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>ISBLANK($O18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O30:O35">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>ISBLANK($O30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="12">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q38"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
@@ -3147,7 +4012,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3261,7 +4126,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445729167</v>
+        <v>44340.444085648</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3627,7 +4492,7 @@
         <v>2</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="I30" s="27"/>
       <c r="J30" s="29" t="s">
@@ -3644,7 +4509,9 @@
       <c r="O30" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P30" s="32"/>
+      <c r="P30" s="32" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
       <c r="D31" s="2">
@@ -3655,7 +4522,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="I31" s="27"/>
       <c r="J31" s="29" t="s">
@@ -3672,9 +4539,11 @@
         <v>2</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P31" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P31" s="32" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
       <c r="D32" s="2">
@@ -3685,7 +4554,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="I32" s="27"/>
       <c r="J32" s="29" t="s">
@@ -3702,9 +4571,11 @@
         <v>2</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P32" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P32" s="32" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="72">
       <c r="D33" s="2">
@@ -3715,7 +4586,7 @@
         <v>3</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="I33" s="27"/>
       <c r="J33" s="29" t="s">
@@ -3732,7 +4603,9 @@
       <c r="O33" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P33" s="32"/>
+      <c r="P33" s="32" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="34" spans="1:17" customHeight="1" ht="72">
       <c r="D34" s="2"/>
@@ -3798,7 +4671,7 @@
     </row>
     <row r="38" spans="1:17" customHeight="1" ht="72">
       <c r="G38" s="34" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="H38" s="34"/>
       <c r="I38" s="34"/>
@@ -4151,7 +5024,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445729167</v>
+        <v>44340.444085648</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5106,7 +5979,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445729167</v>
+        <v>44340.444085648</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5922,7 +6795,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445729167</v>
+        <v>44340.444085648</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6546,12 +7419,12 @@
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>verouderd PTA</v>
+        <v>Dit is het programma van de huidige M5 (cohort 2019 - 2020)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -6573,6 +7446,871 @@
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="G4" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
+        <v>NLT leerlaag M4 (schooljaar 2019 - 2020)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" customHeight="1" ht="34.5">
+      <c r="A5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2">
+        <v>20</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" customHeight="1" ht="72">
+      <c r="A6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="30"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="32"/>
+    </row>
+    <row r="7" spans="1:17" customHeight="1" ht="72">
+      <c r="A7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="30"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="32"/>
+    </row>
+    <row r="8" spans="1:17" customHeight="1" ht="72">
+      <c r="A8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2">
+        <v>127</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="30"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="32"/>
+    </row>
+    <row r="9" spans="1:17" customHeight="1" ht="72">
+      <c r="A9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="4">
+        <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
+        <v>2020</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="30"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="32"/>
+    </row>
+    <row r="10" spans="1:17" customHeight="1" ht="72">
+      <c r="A10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="6">
+        <f>NOW()</f>
+        <v>44340.444085648</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="30"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="32"/>
+    </row>
+    <row r="11" spans="1:17" customHeight="1" ht="72">
+      <c r="A11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="4">
+        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
+        <v>2020</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="30"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="32"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f>CONCATENATE(B11," - ",B11+1)</f>
+        <v>2020 - 2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="4">
+        <f>B7-B11</f>
+        <v>-1</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2">
+        <v>316</v>
+      </c>
+      <c r="G13" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  NLT leerlaag M4 (schooljaar 2019 - 2020)</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+    </row>
+    <row r="14" spans="1:17" customHeight="1" ht="72">
+      <c r="A14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="7">
+        <f>4+B11-B7</f>
+        <v>5</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+    </row>
+    <row r="16" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="G16" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
+        <v>NLT leerlaag M5 (schooljaar 2020 - 2021)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" customHeight="1" ht="72">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="G18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="28"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="30"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="32"/>
+    </row>
+    <row r="19" spans="1:17" customHeight="1" ht="72">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="G19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="28"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" s="30"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P19" s="32"/>
+    </row>
+    <row r="20" spans="1:17" customHeight="1" ht="72">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="G20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="28"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="30"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="32"/>
+    </row>
+    <row r="21" spans="1:17" customHeight="1" ht="72">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="G21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="28"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="30"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="32"/>
+    </row>
+    <row r="22" spans="1:17" customHeight="1" ht="72">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="G22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="28"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="30"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="32"/>
+    </row>
+    <row r="23" spans="1:17" customHeight="1" ht="72">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="28"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="30"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="32"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="C25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="2">
+        <v>317</v>
+      </c>
+      <c r="G25" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  NLT leerlaag M5 (schooljaar 2020 - 2021)</v>
+      </c>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+    </row>
+    <row r="26" spans="1:17" customHeight="1" ht="72">
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+    </row>
+    <row r="28" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="G28" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
+        <v>NLT leerlaag M6 (schooljaar 2021 - 2020)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N29" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O29" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P29" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" customHeight="1" ht="72">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="G30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="28"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="30"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="32"/>
+    </row>
+    <row r="31" spans="1:17" customHeight="1" ht="72">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="G31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="28"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="30"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="32"/>
+    </row>
+    <row r="32" spans="1:17" customHeight="1" ht="72">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="G32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="30"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="32"/>
+    </row>
+    <row r="33" spans="1:17" customHeight="1" ht="72">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="G33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="28"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="30"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="32"/>
+    </row>
+    <row r="34" spans="1:17" customHeight="1" ht="72">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="G34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="28"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="30"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="32"/>
+    </row>
+    <row r="35" spans="1:17" customHeight="1" ht="72">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="G35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="28"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="30"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="32"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="C37" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="G37" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  NLT leerlaag M6 (schooljaar 2021 - 2020)</v>
+      </c>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+    </row>
+    <row r="38" spans="1:17" customHeight="1" ht="72">
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="G37:M37"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="G26:M26"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J6:J11">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>ISBLANK($J6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:J23">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>ISBLANK($J18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30:J35">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>ISBLANK($J30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:M11">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>ISBLANK($M6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18:M23">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>ISBLANK($M18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M30:M35">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>ISBLANK($M30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:O11">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>ISBLANK($O6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18:O23">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>ISBLANK($O18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O30:O35">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>ISBLANK($O30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="11">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q38"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
+    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
+    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
+    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
+    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
+    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
+    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
+    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
+    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
+    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
+    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
+    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
+    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
+    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
+    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:17" customHeight="1" ht="48">
+      <c r="A2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="35" t="str">
+        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
+        <v>verouderd PTA</v>
+      </c>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="O2" s="25"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" customHeight="1" ht="30">
+      <c r="A4" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="B4" s="2"/>
       <c r="C4" s="9" t="s">
         <v>28</v>
@@ -6738,7 +8476,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445729167</v>
+        <v>44340.444085648</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7318,928 +9056,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:Q38"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
-    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
-    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
-    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
-    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
-    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
-    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
-    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
-    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
-    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
-    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
-    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
-    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
-    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
-    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="11"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:17" customHeight="1" ht="48">
-      <c r="A2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="35" t="str">
-        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige H4 (cohort 2020 - 2022)</v>
-      </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="O2" s="25"/>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" customHeight="1" ht="30">
-      <c r="A4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="G4" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>NLT leerlaag H4 (schooljaar 2020 - 2021)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" customHeight="1" ht="34.5">
-      <c r="A5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="2">
-        <v>20</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" customHeight="1" ht="72">
-      <c r="A6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="2">
-        <v>427</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="G6" s="27">
-        <v>1</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="I6" s="27">
-        <v>2</v>
-      </c>
-      <c r="J6" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="27">
-        <v>100</v>
-      </c>
-      <c r="M6" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P6" s="32"/>
-    </row>
-    <row r="7" spans="1:17" customHeight="1" ht="72">
-      <c r="A7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2020</v>
-      </c>
-      <c r="D7" s="2">
-        <v>428</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="G7" s="27">
-        <v>2</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" s="27">
-        <v>1</v>
-      </c>
-      <c r="J7" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="27">
-        <v>50</v>
-      </c>
-      <c r="M7" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N7" s="31">
-        <v>1</v>
-      </c>
-      <c r="O7" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" s="32"/>
-    </row>
-    <row r="8" spans="1:17" customHeight="1" ht="72">
-      <c r="A8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="2">
-        <v>128</v>
-      </c>
-      <c r="D8" s="2">
-        <v>429</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="G8" s="27">
-        <v>2</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="I8" s="27">
-        <v>1</v>
-      </c>
-      <c r="J8" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="30"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N8" s="31">
-        <v>1</v>
-      </c>
-      <c r="O8" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P8" s="32"/>
-    </row>
-    <row r="9" spans="1:17" customHeight="1" ht="72">
-      <c r="A9" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="4">
-        <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2022</v>
-      </c>
-      <c r="D9" s="2">
-        <v>430</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="G9" s="27">
-        <v>3</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="I9" s="27">
-        <v>2</v>
-      </c>
-      <c r="J9" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N9" s="31">
-        <v>2</v>
-      </c>
-      <c r="O9" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P9" s="32"/>
-    </row>
-    <row r="10" spans="1:17" customHeight="1" ht="72">
-      <c r="A10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="6">
-        <f>NOW()</f>
-        <v>44336.445729167</v>
-      </c>
-      <c r="D10" s="2">
-        <v>431</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="G10" s="27">
-        <v>4</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="I10" s="27">
-        <v>1</v>
-      </c>
-      <c r="J10" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N10" s="31">
-        <v>1</v>
-      </c>
-      <c r="O10" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="32"/>
-    </row>
-    <row r="11" spans="1:17" customHeight="1" ht="72">
-      <c r="A11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="4">
-        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
-        <v>2020</v>
-      </c>
-      <c r="D11" s="2">
-        <v>432</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="G11" s="27">
-        <v>4</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="I11" s="27">
-        <v>1</v>
-      </c>
-      <c r="J11" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="27">
-        <v>50</v>
-      </c>
-      <c r="M11" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N11" s="31">
-        <v>1</v>
-      </c>
-      <c r="O11" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P11" s="32"/>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="4" t="str">
-        <f>CONCATENATE(B11," - ",B11+1)</f>
-        <v>2020 - 2021</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="4">
-        <f>B7-B11</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="2">
-        <v>318</v>
-      </c>
-      <c r="G13" s="33" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  NLT leerlaag H4 (schooljaar 2020 - 2021)</v>
-      </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-    </row>
-    <row r="14" spans="1:17" customHeight="1" ht="72">
-      <c r="A14" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="7">
-        <f>4+B11-B7</f>
-        <v>4</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-    </row>
-    <row r="16" spans="1:17" customHeight="1" ht="30.75">
-      <c r="C16" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="G16" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>NLT leerlaag H5 (schooljaar 2021 - 2022)</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" customHeight="1" ht="34.5">
-      <c r="D17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K17" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L17" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M17" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N17" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O17" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P17" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="G18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="30"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="32"/>
-    </row>
-    <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="G19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" s="30"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="32"/>
-    </row>
-    <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="G20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="30"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="32"/>
-    </row>
-    <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="G21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="28"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="30"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="32"/>
-    </row>
-    <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="G22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="30"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="32"/>
-    </row>
-    <row r="23" spans="1:17" customHeight="1" ht="72">
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="G23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="28"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="30"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="32"/>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="C25" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="2">
-        <v>319</v>
-      </c>
-      <c r="G25" s="33" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  NLT leerlaag H5 (schooljaar 2021 - 2022)</v>
-      </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-    </row>
-    <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-    </row>
-    <row r="28" spans="1:17" customHeight="1" ht="30.75">
-      <c r="C28" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="G28" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>NLT leerlaag H6 (schooljaar 2022 - 2022)</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" customHeight="1" ht="34.5">
-      <c r="D29" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I29" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J29" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K29" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L29" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M29" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N29" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O29" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P29" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" customHeight="1" ht="72">
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="G30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="28"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K30" s="30"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P30" s="32"/>
-    </row>
-    <row r="31" spans="1:17" customHeight="1" ht="72">
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="G31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="28"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K31" s="30"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P31" s="32"/>
-    </row>
-    <row r="32" spans="1:17" customHeight="1" ht="72">
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="G32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="28"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="30"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="32"/>
-    </row>
-    <row r="33" spans="1:17" customHeight="1" ht="72">
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="G33" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="28"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="30"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="32"/>
-    </row>
-    <row r="34" spans="1:17" customHeight="1" ht="72">
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="G34" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="28"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K34" s="30"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P34" s="32"/>
-    </row>
-    <row r="35" spans="1:17" customHeight="1" ht="72">
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="G35" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="28"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="30"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="32"/>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="C37" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="G37" s="33" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  NLT leerlaag H6 (schooljaar 2022 - 2022)</v>
-      </c>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-    </row>
-    <row r="38" spans="1:17" customHeight="1" ht="72">
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-    </row>
-  </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="G37:M37"/>
-    <mergeCell ref="G38:M38"/>
-    <mergeCell ref="G14:M14"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="G13:M13"/>
-    <mergeCell ref="G25:M25"/>
-    <mergeCell ref="G26:M26"/>
-  </mergeCells>
-  <conditionalFormatting sqref="J6:J11">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>ISBLANK($J6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18:J23">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>ISBLANK($J18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30:J35">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>ISBLANK($J30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M6:M11">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>ISBLANK($M6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M18:M23">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>ISBLANK($M18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M30:M35">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>ISBLANK($M30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O6:O11">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>ISBLANK($O6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O18:O23">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>ISBLANK($O18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O30:O35">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>ISBLANK($O30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="12">
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
@@ -8289,7 +9105,7 @@
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige H5 (cohort 2019 - 2021)</v>
+        <v>Dit is het programma van de huidige H4 (cohort 2020 - 2022)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -8320,7 +9136,7 @@
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>NLT leerlaag H4 (schooljaar 2019 - 2020)</v>
+        <v>NLT leerlaag H4 (schooljaar 2020 - 2021)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
@@ -8372,26 +9188,34 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="D6" s="2">
+        <v>427</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="G6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="27"/>
+      <c r="G6" s="27">
+        <v>1</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="27">
+        <v>2</v>
+      </c>
       <c r="J6" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K6" s="30"/>
-      <c r="L6" s="27"/>
+      <c r="L6" s="27">
+        <v>100</v>
+      </c>
       <c r="M6" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N6" s="31"/>
-      <c r="O6" s="31" t="s">
-        <v>5</v>
+      <c r="O6" s="31">
+        <v>0</v>
       </c>
       <c r="P6" s="32"/>
     </row>
@@ -8400,56 +9224,78 @@
         <v>42</v>
       </c>
       <c r="B7" s="2">
-        <v>2019</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>2020</v>
+      </c>
+      <c r="D7" s="2">
+        <v>428</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="G7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="27"/>
+      <c r="G7" s="27">
+        <v>2</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="27">
+        <v>1</v>
+      </c>
       <c r="J7" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K7" s="30"/>
-      <c r="L7" s="27"/>
+      <c r="L7" s="27">
+        <v>50</v>
+      </c>
       <c r="M7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N7" s="31">
+        <v>1</v>
+      </c>
       <c r="O7" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P7" s="32" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="2">
-        <v>129</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="D8" s="2">
+        <v>429</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="G8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="27"/>
+      <c r="G8" s="27">
+        <v>2</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="27">
+        <v>1</v>
+      </c>
       <c r="J8" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K8" s="30"/>
       <c r="L8" s="27"/>
       <c r="M8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N8" s="31">
+        <v>1</v>
+      </c>
       <c r="O8" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="P8" s="32" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
@@ -8457,28 +9303,38 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2021</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>2022</v>
+      </c>
+      <c r="D9" s="2">
+        <v>430</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="G9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="27"/>
+      <c r="G9" s="27">
+        <v>3</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" s="27">
+        <v>2</v>
+      </c>
       <c r="J9" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K9" s="30"/>
       <c r="L9" s="27"/>
       <c r="M9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N9" s="31">
+        <v>2</v>
+      </c>
       <c r="O9" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="P9" s="32" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
@@ -8486,26 +9342,34 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445729167</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44340.444085648</v>
+      </c>
+      <c r="D10" s="2">
+        <v>431</v>
+      </c>
       <c r="E10" s="2"/>
-      <c r="G10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="27"/>
+      <c r="G10" s="27">
+        <v>4</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" s="27">
+        <v>1</v>
+      </c>
       <c r="J10" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K10" s="30"/>
       <c r="L10" s="27"/>
       <c r="M10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31" t="s">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="N10" s="31">
+        <v>1</v>
+      </c>
+      <c r="O10" s="31">
+        <v>0</v>
       </c>
       <c r="P10" s="32"/>
     </row>
@@ -8517,26 +9381,38 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>432</v>
+      </c>
       <c r="E11" s="2"/>
-      <c r="G11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="27"/>
+      <c r="G11" s="27">
+        <v>4</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="27">
+        <v>1</v>
+      </c>
       <c r="J11" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K11" s="30"/>
-      <c r="L11" s="27"/>
+      <c r="L11" s="27">
+        <v>50</v>
+      </c>
       <c r="M11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N11" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N11" s="31">
+        <v>1</v>
+      </c>
       <c r="O11" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P11" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P11" s="32" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
@@ -8553,17 +9429,17 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  NLT leerlaag H4 (schooljaar 2019 - 2020)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  NLT leerlaag H4 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -8578,9 +9454,11 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>5</v>
-      </c>
-      <c r="G14" s="34"/>
+        <v>4</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>83</v>
+      </c>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
@@ -8595,7 +9473,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>NLT leerlaag H5 (schooljaar 2020 - 2021)</v>
+        <v>NLT leerlaag H5 (schooljaar 2021 - 2022)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -8637,58 +9515,46 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2">
-        <v>433</v>
-      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="G18" s="27">
-        <v>2</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>80</v>
-      </c>
+      <c r="G18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="28"/>
       <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K18" s="30"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N18" s="31">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N18" s="31"/>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2">
-        <v>434</v>
-      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="G19" s="27">
-        <v>3</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>77</v>
-      </c>
+      <c r="G19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="28"/>
       <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K19" s="30"/>
       <c r="L19" s="27"/>
       <c r="M19" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N19" s="31">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N19" s="31"/>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P19" s="32"/>
     </row>
@@ -8785,11 +9651,11 @@
         <v>28</v>
       </c>
       <c r="D25" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  NLT leerlaag H5 (schooljaar 2020 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  NLT leerlaag H5 (schooljaar 2021 - 2022)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -8799,9 +9665,7 @@
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34" t="s">
-        <v>81</v>
-      </c>
+      <c r="G26" s="34"/>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
@@ -8816,7 +9680,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>NLT leerlaag H6 (schooljaar 2021 - 2021)</v>
+        <v>NLT leerlaag H6 (schooljaar 2022 - 2022)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -8996,7 +9860,7 @@
       <c r="D37" s="2"/>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  NLT leerlaag H6 (schooljaar 2021 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  NLT leerlaag H6 (schooljaar 2022 - 2022)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -9166,12 +10030,12 @@
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>verouderd PTA</v>
+        <v>Dit is het programma van de huidige H5 (cohort 2019 - 2021)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -9193,21 +10057,25 @@
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="C4" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v> leerlaag 4 (schooljaar  - 1)</v>
+        <v>NLT leerlaag H4 (schooljaar 2019 - 2020)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>20</v>
+      </c>
       <c r="D5" s="7" t="s">
         <v>30</v>
       </c>
@@ -9249,7 +10117,9 @@
       <c r="A6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="G6" s="27" t="s">
@@ -9275,7 +10145,9 @@
       <c r="A7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <v>2019</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="G7" s="27" t="s">
@@ -9301,7 +10173,9 @@
       <c r="A8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <v>129</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="G8" s="27" t="s">
@@ -9329,7 +10203,7 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>1</v>
+        <v>2021</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -9358,7 +10232,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445729167</v>
+        <v>44340.444085648</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9425,15 +10299,17 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-2020</v>
+        <v>-1</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>320</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 4 (schooljaar  - 1)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  NLT leerlaag H4 (schooljaar 2019 - 2020)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -9448,7 +10324,7 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>2024</v>
+        <v>5</v>
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
@@ -9465,7 +10341,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v> leerlaag 5 (schooljaar 1 - 2)</v>
+        <v>NLT leerlaag H5 (schooljaar 2020 - 2021)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -9507,48 +10383,64 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>433</v>
+      </c>
       <c r="E18" s="2"/>
-      <c r="G18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="28"/>
+      <c r="G18" s="27">
+        <v>2</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>84</v>
+      </c>
       <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K18" s="30"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N18" s="31">
+        <v>5</v>
+      </c>
       <c r="O18" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="P18" s="32" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>434</v>
+      </c>
       <c r="E19" s="2"/>
-      <c r="G19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="28"/>
+      <c r="G19" s="27">
+        <v>3</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>79</v>
+      </c>
       <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K19" s="30"/>
       <c r="L19" s="27"/>
       <c r="M19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N19" s="31">
+        <v>5</v>
+      </c>
       <c r="O19" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="P19" s="32" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
       <c r="D20" s="2"/>
@@ -9642,10 +10534,12 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>321</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 5 (schooljaar 1 - 2)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  NLT leerlaag H5 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -9655,7 +10549,9 @@
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34"/>
+      <c r="G26" s="34" t="s">
+        <v>87</v>
+      </c>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
@@ -9670,7 +10566,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v> leerlaag 6 (schooljaar 2 - 1)</v>
+        <v>NLT leerlaag H6 (schooljaar 2021 - 2021)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -9850,7 +10746,7 @@
       <c r="D37" s="2"/>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 6 (schooljaar 2 - 1)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  NLT leerlaag H6 (schooljaar 2021 - 2021)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -9924,6 +10820,44 @@
       <formula>ISBLANK($O30)</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="12">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>

--- a/public/cohort/fileExcel/xlsxUIT/NLT PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/NLT PTA en onderwijsprogramma.xlsx
@@ -1649,7 +1649,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809166667</v>
+        <v>44341.376550926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2323,7 +2323,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -2767,7 +2767,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809166667</v>
+        <v>44341.376550926</v>
       </c>
       <c r="D10" s="2">
         <v>431</v>
@@ -3463,7 +3463,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -3867,7 +3867,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809166667</v>
+        <v>44341.376550926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4559,7 +4559,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -4963,7 +4963,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809166667</v>
+        <v>44341.376550926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5639,7 +5639,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -6079,7 +6079,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809166667</v>
+        <v>44341.376550926</v>
       </c>
       <c r="D10" s="2">
         <v>439</v>
@@ -6763,7 +6763,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -7167,7 +7167,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809166667</v>
+        <v>44341.376550926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7887,7 +7887,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -8291,7 +8291,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809166667</v>
+        <v>44341.376550926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9005,7 +9005,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>

--- a/public/cohort/fileExcel/xlsxUIT/NLT PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/NLT PTA en onderwijsprogramma.xlsx
@@ -825,7 +825,16 @@
     <t>H</t>
   </si>
   <si>
+    <t>Forensisch onderzoek</t>
+  </si>
+  <si>
     <t>startJaar</t>
+  </si>
+  <si>
+    <t>De reis van de Beagle</t>
+  </si>
+  <si>
+    <t>B1, B2, E2, A</t>
   </si>
   <si>
     <t>cid</t>
@@ -834,10 +843,22 @@
     <t>eindJaar</t>
   </si>
   <si>
+    <t>Bewust overwogen biertje</t>
+  </si>
+  <si>
+    <t>B1, B2, D, E2, A</t>
+  </si>
+  <si>
     <t>vandaag</t>
   </si>
   <si>
+    <t>Aerosolen en vuile lucht</t>
+  </si>
+  <si>
     <t>huidigStartjaar</t>
+  </si>
+  <si>
+    <t>B1, B2, C, D, A</t>
   </si>
   <si>
     <t>huidigSchooljaar</t>
@@ -850,27 +871,6 @@
   </si>
   <si>
     <t>mavo?</t>
-  </si>
-  <si>
-    <t>Forensisch onderzoek</t>
-  </si>
-  <si>
-    <t>De reis van de Beagle</t>
-  </si>
-  <si>
-    <t>B1, B2, E2, A</t>
-  </si>
-  <si>
-    <t>Bewust overwogen biertje</t>
-  </si>
-  <si>
-    <t>B1, B2, D, E2, A</t>
-  </si>
-  <si>
-    <t>Aerosolen en vuile lucht</t>
-  </si>
-  <si>
-    <t>B1, B2, C, D, A</t>
   </si>
   <si>
     <t>De BINAS HAVO/VWO is bij alle schriftelijke toetsen een toegestaan hulpmiddel, tenzij anders vermeld bij de toets</t>
@@ -2300,185 +2300,245 @@
       <c r="B6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>941</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="37"/>
-      <c r="G6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="23"/>
+      <c r="G6" s="23">
+        <v>1</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="23">
+        <v>2</v>
+      </c>
       <c r="J6" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K6" s="26"/>
-      <c r="L6" s="23"/>
+      <c r="L6" s="23">
+        <v>100</v>
+      </c>
       <c r="M6" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N6" s="27"/>
-      <c r="O6" s="27" t="s">
-        <v>5</v>
+      <c r="O6" s="27">
+        <v>0</v>
       </c>
       <c r="P6" s="28"/>
       <c r="Q6" s="37"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>942</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="37"/>
-      <c r="G7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="23"/>
+      <c r="G7" s="23">
+        <v>2</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="23">
+        <v>1</v>
+      </c>
       <c r="J7" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K7" s="26"/>
-      <c r="L7" s="23"/>
+      <c r="L7" s="23">
+        <v>50</v>
+      </c>
       <c r="M7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N7" s="27">
+        <v>1</v>
+      </c>
       <c r="O7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P7" s="28" t="s">
+        <v>63</v>
+      </c>
       <c r="Q7" s="37"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B8" s="2">
         <v>239</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>943</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="37"/>
-      <c r="G8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="23"/>
+      <c r="G8" s="23">
+        <v>2</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="23">
+        <v>1</v>
+      </c>
       <c r="J8" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K8" s="26"/>
       <c r="L8" s="23"/>
       <c r="M8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N8" s="27">
+        <v>1</v>
+      </c>
       <c r="O8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P8" s="28" t="s">
+        <v>63</v>
+      </c>
       <c r="Q8" s="37"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2023</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>944</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="37"/>
-      <c r="G9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="23"/>
+      <c r="G9" s="23">
+        <v>3</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="23">
+        <v>2</v>
+      </c>
       <c r="J9" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K9" s="26"/>
       <c r="L9" s="23"/>
       <c r="M9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N9" s="27">
+        <v>2</v>
+      </c>
       <c r="O9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P9" s="28" t="s">
+        <v>67</v>
+      </c>
       <c r="Q9" s="37"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382615741</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44342.629826389</v>
+      </c>
+      <c r="D10" s="2">
+        <v>945</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="37"/>
-      <c r="G10" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="23"/>
+      <c r="G10" s="23">
+        <v>4</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="23">
+        <v>1</v>
+      </c>
       <c r="J10" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K10" s="26"/>
       <c r="L10" s="23"/>
       <c r="M10" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="N10" s="27">
+        <v>1</v>
+      </c>
+      <c r="O10" s="27">
+        <v>0</v>
       </c>
       <c r="P10" s="28"/>
       <c r="Q10" s="37"/>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>946</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="37"/>
-      <c r="G11" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="23"/>
+      <c r="G11" s="23">
+        <v>4</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="23">
+        <v>1</v>
+      </c>
       <c r="J11" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K11" s="26"/>
-      <c r="L11" s="23"/>
+      <c r="L11" s="23">
+        <v>50</v>
+      </c>
       <c r="M11" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N11" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N11" s="27">
+        <v>1</v>
+      </c>
       <c r="O11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P11" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P11" s="28" t="s">
+        <v>71</v>
+      </c>
       <c r="Q11" s="37"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -2499,7 +2559,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -2529,7 +2589,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -2550,7 +2610,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -3387,7 +3447,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="47" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="I6" s="43">
         <v>2</v>
@@ -3411,7 +3471,7 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -3425,7 +3485,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="47" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="I7" s="43">
         <v>1</v>
@@ -3447,13 +3507,13 @@
         <v>8</v>
       </c>
       <c r="P7" s="52" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="Q7" s="37"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B8" s="2">
         <v>128</v>
@@ -3467,7 +3527,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="47" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="I8" s="43">
         <v>1</v>
@@ -3487,13 +3547,13 @@
         <v>11</v>
       </c>
       <c r="P8" s="52" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="Q8" s="37"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -3508,7 +3568,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="47" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I9" s="43">
         <v>2</v>
@@ -3528,17 +3588,17 @@
         <v>11</v>
       </c>
       <c r="P9" s="52" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="Q9" s="37"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382615741</v>
+        <v>44342.629826389</v>
       </c>
       <c r="D10" s="2">
         <v>431</v>
@@ -3549,7 +3609,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="47" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I10" s="43">
         <v>1</v>
@@ -3573,7 +3633,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -3588,7 +3648,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="47" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I11" s="43">
         <v>1</v>
@@ -3610,13 +3670,13 @@
         <v>8</v>
       </c>
       <c r="P11" s="52" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Q11" s="37"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -3637,7 +3697,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -3667,7 +3727,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -3690,7 +3750,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -3771,51 +3831,67 @@
       <c r="Q17" s="37"/>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>939</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="37"/>
-      <c r="G18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="24"/>
+      <c r="G18" s="23">
+        <v>2</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>77</v>
+      </c>
       <c r="I18" s="23"/>
       <c r="J18" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K18" s="26"/>
       <c r="L18" s="23"/>
       <c r="M18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N18" s="27">
+        <v>5</v>
+      </c>
       <c r="O18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P18" s="28" t="s">
+        <v>78</v>
+      </c>
       <c r="Q18" s="37"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>940</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="37"/>
-      <c r="G19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="24"/>
+      <c r="G19" s="23">
+        <v>3</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>66</v>
+      </c>
       <c r="I19" s="23"/>
       <c r="J19" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K19" s="26"/>
       <c r="L19" s="23"/>
       <c r="M19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N19" s="27">
+        <v>5</v>
+      </c>
       <c r="O19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P19" s="28" t="s">
+        <v>79</v>
+      </c>
       <c r="Q19" s="37"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
@@ -4543,7 +4619,7 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -4573,7 +4649,7 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B8" s="2">
         <v>129</v>
@@ -4603,7 +4679,7 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -4634,11 +4710,11 @@
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382615741</v>
+        <v>44342.629826389</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4665,7 +4741,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -4696,7 +4772,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -4717,7 +4793,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -4747,7 +4823,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -4768,7 +4844,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -4890,7 +4966,7 @@
         <v>3</v>
       </c>
       <c r="H19" s="47" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I19" s="43"/>
       <c r="J19" s="48" t="s">
@@ -5614,81 +5690,109 @@
       <c r="B6" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>955</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="37"/>
-      <c r="G6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="23"/>
+      <c r="G6" s="23">
+        <v>1</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" s="23">
+        <v>5</v>
+      </c>
       <c r="J6" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K6" s="26"/>
-      <c r="L6" s="23"/>
+      <c r="L6" s="23">
+        <v>100</v>
+      </c>
       <c r="M6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N6" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N6" s="27">
+        <v>1</v>
+      </c>
       <c r="O6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P6" s="28" t="s">
+        <v>83</v>
+      </c>
       <c r="Q6" s="37"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>956</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="37"/>
-      <c r="G7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="23"/>
+      <c r="G7" s="23">
+        <v>2</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7" s="23">
+        <v>5</v>
+      </c>
       <c r="J7" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K7" s="26"/>
       <c r="L7" s="23"/>
       <c r="M7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="N7" s="27">
+        <v>1</v>
+      </c>
+      <c r="O7" s="27">
+        <v>0</v>
+      </c>
+      <c r="P7" s="28" t="s">
+        <v>83</v>
+      </c>
       <c r="Q7" s="37"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B8" s="2">
         <v>240</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>957</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="37"/>
-      <c r="G8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="23"/>
+      <c r="G8" s="23">
+        <v>3</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8" s="23">
+        <v>10</v>
+      </c>
       <c r="J8" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K8" s="26"/>
       <c r="L8" s="23"/>
       <c r="M8" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N8" s="27"/>
       <c r="O8" s="27" t="s">
@@ -5699,58 +5803,72 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2024</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>958</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="37"/>
-      <c r="G9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="23"/>
+      <c r="G9" s="23">
+        <v>4</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9" s="23">
+        <v>2</v>
+      </c>
       <c r="J9" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K9" s="26"/>
-      <c r="L9" s="23"/>
+      <c r="L9" s="23">
+        <v>50</v>
+      </c>
       <c r="M9" s="23" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N9" s="27"/>
       <c r="O9" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P9" s="28"/>
       <c r="Q9" s="37"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382615741</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44342.629826389</v>
+      </c>
+      <c r="D10" s="2">
+        <v>959</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="37"/>
-      <c r="G10" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="23"/>
+      <c r="G10" s="23">
+        <v>4</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" s="23">
+        <v>8</v>
+      </c>
       <c r="J10" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K10" s="26"/>
       <c r="L10" s="23"/>
       <c r="M10" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N10" s="27"/>
       <c r="O10" s="27" t="s">
@@ -5761,7 +5879,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -5792,7 +5910,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -5813,7 +5931,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -5843,7 +5961,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -5864,7 +5982,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -6731,7 +6849,7 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -6771,7 +6889,7 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B8" s="2">
         <v>130</v>
@@ -6807,7 +6925,7 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -6846,11 +6964,11 @@
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382615741</v>
+        <v>44342.629826389</v>
       </c>
       <c r="D10" s="2">
         <v>439</v>
@@ -6883,7 +7001,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -6914,7 +7032,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -6935,7 +7053,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -6965,7 +7083,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -6988,7 +7106,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -7069,99 +7187,141 @@
       <c r="Q17" s="37"/>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>951</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="37"/>
-      <c r="G18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="23"/>
+      <c r="G18" s="23">
+        <v>2</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" s="23">
+        <v>2</v>
+      </c>
       <c r="J18" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K18" s="26"/>
       <c r="L18" s="23"/>
       <c r="M18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N18" s="27">
+        <v>2</v>
+      </c>
       <c r="O18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P18" s="28" t="s">
+        <v>89</v>
+      </c>
       <c r="Q18" s="37"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>952</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="37"/>
-      <c r="G19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="23"/>
+      <c r="G19" s="23">
+        <v>2</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="I19" s="23">
+        <v>1</v>
+      </c>
       <c r="J19" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K19" s="26"/>
-      <c r="L19" s="23"/>
+      <c r="L19" s="23">
+        <v>100</v>
+      </c>
       <c r="M19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N19" s="27">
+        <v>1</v>
+      </c>
       <c r="O19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P19" s="28" t="s">
+        <v>89</v>
+      </c>
       <c r="Q19" s="37"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>953</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="37"/>
-      <c r="G20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="23"/>
+      <c r="G20" s="23">
+        <v>3</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" s="23">
+        <v>3</v>
+      </c>
       <c r="J20" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K20" s="26"/>
       <c r="L20" s="23"/>
       <c r="M20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N20" s="27">
+        <v>3</v>
+      </c>
       <c r="O20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P20" s="28" t="s">
+        <v>92</v>
+      </c>
       <c r="Q20" s="37"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>954</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="37"/>
-      <c r="G21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="24"/>
-      <c r="I21" s="23"/>
+      <c r="G21" s="23">
+        <v>4</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="I21" s="23">
+        <v>3</v>
+      </c>
       <c r="J21" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K21" s="26"/>
       <c r="L21" s="23"/>
       <c r="M21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N21" s="27">
+        <v>3</v>
+      </c>
       <c r="O21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P21" s="28" t="s">
+        <v>94</v>
+      </c>
       <c r="Q21" s="37"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
@@ -7843,7 +8003,7 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -7873,7 +8033,7 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B8" s="2">
         <v>131</v>
@@ -7903,7 +8063,7 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -7934,11 +8094,11 @@
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382615741</v>
+        <v>44342.629826389</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7965,7 +8125,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -7996,7 +8156,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -8017,7 +8177,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -8047,7 +8207,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -8068,7 +8228,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -8463,99 +8623,135 @@
       <c r="Q29" s="37"/>
     </row>
     <row r="30" spans="1:17" customHeight="1" ht="72">
-      <c r="D30" s="2"/>
+      <c r="D30" s="2">
+        <v>947</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="F30" s="37"/>
-      <c r="G30" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="24"/>
+      <c r="G30" s="23">
+        <v>2</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>95</v>
+      </c>
       <c r="I30" s="23"/>
       <c r="J30" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K30" s="26"/>
       <c r="L30" s="23"/>
       <c r="M30" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N30" s="27">
+        <v>2</v>
+      </c>
       <c r="O30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P30" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P30" s="28" t="s">
+        <v>96</v>
+      </c>
       <c r="Q30" s="37"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
-      <c r="D31" s="2"/>
+      <c r="D31" s="2">
+        <v>948</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="F31" s="37"/>
-      <c r="G31" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="24"/>
+      <c r="G31" s="23">
+        <v>2</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>97</v>
+      </c>
       <c r="I31" s="23"/>
       <c r="J31" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K31" s="26"/>
-      <c r="L31" s="23"/>
+      <c r="L31" s="23">
+        <v>100</v>
+      </c>
       <c r="M31" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N31" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N31" s="27">
+        <v>2</v>
+      </c>
       <c r="O31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P31" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P31" s="28" t="s">
+        <v>96</v>
+      </c>
       <c r="Q31" s="37"/>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
-      <c r="D32" s="2"/>
+      <c r="D32" s="2">
+        <v>949</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="F32" s="37"/>
-      <c r="G32" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="24"/>
+      <c r="G32" s="23">
+        <v>3</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>98</v>
+      </c>
       <c r="I32" s="23"/>
       <c r="J32" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K32" s="26"/>
-      <c r="L32" s="23"/>
+      <c r="L32" s="23">
+        <v>100</v>
+      </c>
       <c r="M32" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N32" s="27">
+        <v>2</v>
+      </c>
       <c r="O32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P32" s="28" t="s">
+        <v>99</v>
+      </c>
       <c r="Q32" s="37"/>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="72">
-      <c r="D33" s="2"/>
+      <c r="D33" s="2">
+        <v>950</v>
+      </c>
       <c r="E33" s="2"/>
       <c r="F33" s="37"/>
-      <c r="G33" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="24"/>
+      <c r="G33" s="23">
+        <v>3</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>100</v>
+      </c>
       <c r="I33" s="23"/>
       <c r="J33" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K33" s="26"/>
       <c r="L33" s="23"/>
       <c r="M33" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N33" s="27">
+        <v>2</v>
+      </c>
       <c r="O33" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P33" s="28" t="s">
+        <v>99</v>
+      </c>
       <c r="Q33" s="37"/>
     </row>
     <row r="34" spans="1:17" customHeight="1" ht="72">
@@ -8967,7 +9163,7 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2">
         <v>2018</v>
@@ -8997,7 +9193,7 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B8" s="2">
         <v>132</v>
@@ -9027,7 +9223,7 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -9058,11 +9254,11 @@
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382615741</v>
+        <v>44342.629826389</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9089,7 +9285,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -9120,7 +9316,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -9141,7 +9337,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -9171,7 +9367,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -9192,7 +9388,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>

--- a/public/cohort/fileExcel/xlsxUIT/NLT PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/NLT PTA en onderwijsprogramma.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="105">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -886,6 +886,9 @@
   </si>
   <si>
     <t>Forensisch onderzoek</t>
+  </si>
+  <si>
+    <t>kies...</t>
   </si>
   <si>
     <t>startJaar</t>
@@ -2404,8 +2407,8 @@
         <v>11</v>
       </c>
       <c r="N6" s="46"/>
-      <c r="O6" s="31">
-        <v>0</v>
+      <c r="O6" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -2471,7 +2474,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
@@ -2484,7 +2487,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I7" s="45">
         <v>1</v>
@@ -2503,10 +2506,10 @@
         <v>1</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
@@ -2571,7 +2574,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2">
         <v>239</v>
@@ -2584,7 +2587,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I8" s="45">
         <v>1</v>
@@ -2601,10 +2604,10 @@
         <v>1</v>
       </c>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -2669,7 +2672,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -2683,7 +2686,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -2700,10 +2703,10 @@
         <v>2</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
@@ -2768,11 +2771,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541064815</v>
+        <v>44378.451296296</v>
       </c>
       <c r="D10" s="2">
         <v>945</v>
@@ -2782,7 +2785,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I10" s="45">
         <v>1</v>
@@ -2798,8 +2801,8 @@
       <c r="N10" s="46">
         <v>1</v>
       </c>
-      <c r="O10" s="31">
-        <v>0</v>
+      <c r="O10" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -2865,7 +2868,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -2879,7 +2882,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I11" s="45">
         <v>1</v>
@@ -2898,10 +2901,10 @@
         <v>1</v>
       </c>
       <c r="O11" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P11" s="32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R11" s="7">
         <f>IF(OR(AND($G11&lt;&gt;instellingen!$G$2,ISBLANK($H11)),AND($G11=instellingen!$G$2,$H11&lt;&gt;"")),1,0)</f>
@@ -2966,7 +2969,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -2989,7 +2992,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -3028,7 +3031,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -3058,7 +3061,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -4700,8 +4703,8 @@
         <v>11</v>
       </c>
       <c r="N6" s="46"/>
-      <c r="O6" s="31">
-        <v>0</v>
+      <c r="O6" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -4767,7 +4770,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -4780,7 +4783,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I7" s="45">
         <v>1</v>
@@ -4799,10 +4802,10 @@
         <v>1</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
@@ -4867,7 +4870,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2">
         <v>128</v>
@@ -4880,7 +4883,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I8" s="45">
         <v>1</v>
@@ -4897,10 +4900,10 @@
         <v>1</v>
       </c>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -4965,7 +4968,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -4979,7 +4982,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -4996,10 +4999,10 @@
         <v>2</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
@@ -5064,11 +5067,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541064815</v>
+        <v>44378.451296296</v>
       </c>
       <c r="D10" s="2">
         <v>431</v>
@@ -5078,7 +5081,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I10" s="45">
         <v>1</v>
@@ -5094,8 +5097,8 @@
       <c r="N10" s="46">
         <v>1</v>
       </c>
-      <c r="O10" s="31">
-        <v>0</v>
+      <c r="O10" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -5161,7 +5164,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -5175,7 +5178,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I11" s="45">
         <v>1</v>
@@ -5194,10 +5197,10 @@
         <v>1</v>
       </c>
       <c r="O11" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P11" s="32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R11" s="7">
         <f>IF(OR(AND($G11&lt;&gt;instellingen!$G$2,ISBLANK($H11)),AND($G11=instellingen!$G$2,$H11&lt;&gt;"")),1,0)</f>
@@ -5262,7 +5265,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -5285,7 +5288,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -5324,14 +5327,14 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
         <v>4</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
@@ -5356,7 +5359,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -5462,7 +5465,7 @@
         <v>2</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -5477,10 +5480,10 @@
         <v>5</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -5552,7 +5555,7 @@
         <v>3</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -5567,10 +5570,10 @@
         <v>5</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -7073,7 +7076,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -7161,7 +7164,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2">
         <v>129</v>
@@ -7249,7 +7252,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -7338,11 +7341,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541064815</v>
+        <v>44378.451296296</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7427,7 +7430,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -7516,7 +7519,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -7539,7 +7542,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -7578,7 +7581,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -7608,7 +7611,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -7714,7 +7717,7 @@
         <v>2</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -7729,10 +7732,10 @@
         <v>5</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -7804,7 +7807,7 @@
         <v>3</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -7819,10 +7822,10 @@
         <v>5</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -8263,7 +8266,7 @@
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
       <c r="G26" s="48" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -9242,7 +9245,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D6" s="2">
         <v>955</v>
@@ -9252,7 +9255,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I6" s="45">
         <v>5</v>
@@ -9271,10 +9274,10 @@
         <v>1</v>
       </c>
       <c r="O6" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
@@ -9339,7 +9342,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
@@ -9352,7 +9355,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I7" s="45">
         <v>5</v>
@@ -9368,11 +9371,11 @@
       <c r="N7" s="46">
         <v>1</v>
       </c>
-      <c r="O7" s="31">
-        <v>0</v>
+      <c r="O7" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
@@ -9437,7 +9440,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2">
         <v>240</v>
@@ -9450,7 +9453,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I8" s="45">
         <v>10</v>
@@ -9465,7 +9468,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -9531,7 +9534,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -9545,7 +9548,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -9562,7 +9565,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -9628,11 +9631,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541064815</v>
+        <v>44378.451296296</v>
       </c>
       <c r="D10" s="2">
         <v>959</v>
@@ -9642,7 +9645,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I10" s="45">
         <v>8</v>
@@ -9657,7 +9660,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -9723,7 +9726,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -9812,7 +9815,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -9835,7 +9838,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -9874,7 +9877,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -9904,7 +9907,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -11522,7 +11525,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D6" s="2">
         <v>435</v>
@@ -11532,7 +11535,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I6" s="45">
         <v>5</v>
@@ -11551,10 +11554,10 @@
         <v>1</v>
       </c>
       <c r="O6" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
@@ -11619,7 +11622,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -11632,7 +11635,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I7" s="45">
         <v>5</v>
@@ -11648,11 +11651,11 @@
       <c r="N7" s="46">
         <v>1</v>
       </c>
-      <c r="O7" s="31">
-        <v>0</v>
+      <c r="O7" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
@@ -11717,7 +11720,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2">
         <v>130</v>
@@ -11730,7 +11733,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I8" s="45">
         <v>10</v>
@@ -11745,7 +11748,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -11811,7 +11814,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -11825,7 +11828,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -11842,7 +11845,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -11908,11 +11911,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541064815</v>
+        <v>44378.451296296</v>
       </c>
       <c r="D10" s="2">
         <v>439</v>
@@ -11922,7 +11925,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I10" s="45">
         <v>8</v>
@@ -11937,7 +11940,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -12003,7 +12006,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -12092,7 +12095,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -12115,7 +12118,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -12154,14 +12157,14 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
         <v>4</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
@@ -12186,7 +12189,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -12292,7 +12295,7 @@
         <v>2</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I18" s="45">
         <v>2</v>
@@ -12309,10 +12312,10 @@
         <v>2</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -12384,7 +12387,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I19" s="45">
         <v>1</v>
@@ -12403,10 +12406,10 @@
         <v>1</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -12478,7 +12481,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I20" s="45">
         <v>3</v>
@@ -12495,10 +12498,10 @@
         <v>3</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -12570,7 +12573,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I21" s="45">
         <v>3</v>
@@ -12587,10 +12590,10 @@
         <v>3</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -13846,7 +13849,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -13931,7 +13934,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -14019,7 +14022,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2">
         <v>131</v>
@@ -14107,7 +14110,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -14196,11 +14199,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541064815</v>
+        <v>44378.451296296</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -14285,7 +14288,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -14374,7 +14377,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -14397,7 +14400,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -14436,7 +14439,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -14466,7 +14469,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -14572,7 +14575,7 @@
         <v>2</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I18" s="45">
         <v>2</v>
@@ -14589,10 +14592,10 @@
         <v>2</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -14664,7 +14667,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I19" s="45">
         <v>1</v>
@@ -14683,10 +14686,10 @@
         <v>1</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -14758,7 +14761,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I20" s="45">
         <v>3</v>
@@ -14775,10 +14778,10 @@
         <v>3</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -14850,7 +14853,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I21" s="45">
         <v>3</v>
@@ -14867,10 +14870,10 @@
         <v>3</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -15147,7 +15150,7 @@
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
       <c r="G26" s="48" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -15271,7 +15274,7 @@
         <v>2</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
@@ -15286,10 +15289,10 @@
         <v>2</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
@@ -15361,7 +15364,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="29" t="s">
@@ -15378,10 +15381,10 @@
         <v>2</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P31" s="32" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
@@ -15453,7 +15456,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I32" s="45"/>
       <c r="J32" s="29" t="s">
@@ -15470,10 +15473,10 @@
         <v>2</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P32" s="32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
@@ -15545,7 +15548,7 @@
         <v>3</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I33" s="45"/>
       <c r="J33" s="29" t="s">
@@ -15560,10 +15563,10 @@
         <v>2</v>
       </c>
       <c r="O33" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P33" s="32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="R33" s="7">
         <f>IF(OR(AND($G33&lt;&gt;instellingen!$G$2,ISBLANK($H33)),AND($G33=instellingen!$G$2,$H33&lt;&gt;"")),1,0)</f>
@@ -16164,7 +16167,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -16249,7 +16252,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2018</v>
@@ -16337,7 +16340,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2">
         <v>132</v>
@@ -16425,7 +16428,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -16514,11 +16517,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541064815</v>
+        <v>44378.451296296</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -16603,7 +16606,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -16692,7 +16695,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -16715,7 +16718,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -16754,7 +16757,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -16784,7 +16787,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -17545,7 +17548,7 @@
         <v>2</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
@@ -17560,10 +17563,10 @@
         <v>2</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
@@ -17635,7 +17638,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="29" t="s">
@@ -17652,10 +17655,10 @@
         <v>2</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P31" s="32" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
@@ -17727,7 +17730,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I32" s="45"/>
       <c r="J32" s="29" t="s">
@@ -17744,10 +17747,10 @@
         <v>2</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P32" s="32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
@@ -17819,7 +17822,7 @@
         <v>3</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I33" s="45"/>
       <c r="J33" s="29" t="s">
@@ -17834,10 +17837,10 @@
         <v>2</v>
       </c>
       <c r="O33" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P33" s="32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="R33" s="7">
         <f>IF(OR(AND($G33&lt;&gt;instellingen!$G$2,ISBLANK($H33)),AND($G33=instellingen!$G$2,$H33&lt;&gt;"")),1,0)</f>
@@ -18084,7 +18087,7 @@
     </row>
     <row r="38" spans="1:32" customHeight="1" ht="72">
       <c r="G38" s="48" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H38" s="48"/>
       <c r="I38" s="48"/>
